--- a/Project Outputs for engine hours meter/BOM/Bill of Materials-engine hours meter.xlsx
+++ b/Project Outputs for engine hours meter/BOM/Bill of Materials-engine hours meter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\AutoSignal\счетчик моточасов\engine-hours-meter\Project Outputs for engine hours meter\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0897B1-876E-4E83-8D72-D4AF545A151F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253AFFAA-41AC-4267-83FD-046D01216192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCBD1106-85B8-4BE1-BCC5-A6658F4AE1F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A2C2E9D-3924-4DEB-991B-29E317CFAF14}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-engine hours " sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>Designator</t>
   </si>
@@ -45,6 +45,9 @@
     <t>PartNumber</t>
   </si>
   <si>
+    <t>Voltage</t>
+  </si>
+  <si>
     <t>C1, C2, C3, C5</t>
   </si>
   <si>
@@ -54,13 +57,22 @@
     <t>CAP: 0805</t>
   </si>
   <si>
+    <t>16V</t>
+  </si>
+  <si>
     <t>C4</t>
   </si>
   <si>
     <t>100μF</t>
   </si>
   <si>
-    <t>CAP: TANTAL-A</t>
+    <t>CAP: TANTAL-C</t>
+  </si>
+  <si>
+    <t>F931E226MCC</t>
+  </si>
+  <si>
+    <t>6.3V</t>
   </si>
   <si>
     <t>C6</t>
@@ -72,19 +84,34 @@
     <t>CAP: 1206</t>
   </si>
   <si>
-    <t>C7, C8, C9</t>
+    <t>50V</t>
+  </si>
+  <si>
+    <t>C7, C8</t>
   </si>
   <si>
     <t>470μF</t>
   </si>
   <si>
+    <t>ECAP (К50-35)</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>JCK1A471M080105</t>
+  </si>
+  <si>
+    <t>10V</t>
+  </si>
+  <si>
     <t>C10</t>
   </si>
   <si>
     <t>220μF</t>
   </si>
   <si>
-    <t>CAP: SMD D6.3A6.6H7.7</t>
+    <t>JCK1C221M063077</t>
   </si>
   <si>
     <t>CR1, CR2, CR3, CR4, CR5</t>
@@ -153,6 +180,9 @@
     <t>K1</t>
   </si>
   <si>
+    <t>REL: T9GS1</t>
+  </si>
+  <si>
     <t>NRA-04-C-24D</t>
   </si>
   <si>
@@ -195,9 +225,6 @@
     <t>VD1, VD2, VD3, VD4, VD5</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
     <t>LED 5mm RED</t>
   </si>
   <si>
@@ -222,6 +249,9 @@
     <t>NUP2105LT1G</t>
   </si>
   <si>
+    <t>24V</t>
+  </si>
+  <si>
     <t>VD12, VD13, VD16</t>
   </si>
   <si>
@@ -231,12 +261,18 @@
     <t>M2</t>
   </si>
   <si>
+    <t>75V</t>
+  </si>
+  <si>
     <t>VD15</t>
   </si>
   <si>
     <t>B340A</t>
   </si>
   <si>
+    <t>80V</t>
+  </si>
+  <si>
     <t>VT1, VT2, VT3, VT4, VT5</t>
   </si>
   <si>
@@ -250,6 +286,18 @@
   </si>
   <si>
     <t>IRFR9024NPBF</t>
+  </si>
+  <si>
+    <t>CAP: SMD 8x10.5</t>
+  </si>
+  <si>
+    <t>CAP: SMD 6.3x7.7</t>
+  </si>
+  <si>
+    <t>DNP не ставить</t>
+  </si>
+  <si>
+    <t>CAP: DIP 10x20</t>
   </si>
 </sst>
 </file>
@@ -626,22 +674,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB05ECB-D7D6-479F-960C-88DEF6C99324}">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73B680E-B1EE-4EDC-B594-97BAA86AFBA4}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="39.77734375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -657,383 +707,453 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
       </c>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1">
         <v>14</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="E17" s="2"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1">
         <v>10</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="E18" s="2"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="1">
         <v>6</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1">
         <v>4</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="E27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
